--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/NORTH_CAROLINA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/NORTH_CAROLINA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1572"/>
+  <dimension ref="A1:D1566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -446,13 +446,13 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C29">
@@ -778,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C32">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C34">
@@ -843,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="36">
@@ -908,20 +908,20 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="42">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C47">
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="58">
@@ -1155,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="60">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="61">
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="62">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C69">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C70">
@@ -1376,13 +1376,13 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C77">
@@ -1428,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="D80">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="81">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C86">
@@ -1512,7 +1512,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C87">
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="D95">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="96">
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="99">
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="105">
@@ -1836,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="D111">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="112">
@@ -1888,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="D115">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="116">
@@ -1979,13 +1979,13 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C123">
@@ -2122,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="134">
@@ -2148,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="D135">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="136">
@@ -2205,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="D139">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="140">
@@ -2380,7 +2380,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C153">
@@ -2439,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="D157">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="158">
@@ -2541,7 +2541,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C165">
@@ -2567,7 +2567,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2624,7 +2624,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C171">
@@ -2735,7 +2735,7 @@
         <v>21</v>
       </c>
       <c r="D179">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="180">
@@ -2928,14 +2928,14 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
       <c r="D194">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="195">
@@ -2961,20 +2961,20 @@
         <v>2</v>
       </c>
       <c r="D196">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
       <c r="D197">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="198">
@@ -2987,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="D198">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="199">
@@ -3045,7 +3045,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C203">
@@ -3104,7 +3104,7 @@
         <v>2</v>
       </c>
       <c r="D207">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="208">
@@ -3162,12 +3162,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C212">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C216">
@@ -3278,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="D220">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C222">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C226">
@@ -3388,14 +3388,14 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C229">
         <v>2</v>
       </c>
       <c r="D229">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="230">
@@ -3447,13 +3447,13 @@
         <v>2</v>
       </c>
       <c r="D233">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C234">
@@ -3499,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="D237">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="238">
@@ -3512,7 +3512,7 @@
         <v>2</v>
       </c>
       <c r="D238">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="239">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C240">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C241">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C251">
@@ -3733,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="D255">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="256">
@@ -3746,7 +3746,7 @@
         <v>21</v>
       </c>
       <c r="D256">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="257">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C261">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C262">
@@ -3837,13 +3837,13 @@
         <v>2</v>
       </c>
       <c r="D263">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C264">
@@ -3928,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="D270">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="271">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C275">
@@ -4019,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="D277">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="278">
@@ -4045,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="D279">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="280">
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="D280">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="281">
@@ -4097,7 +4097,7 @@
         <v>2</v>
       </c>
       <c r="D283">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="284">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C286">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C291">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C292">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C293">
@@ -4233,14 +4233,14 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C294">
         <v>2</v>
       </c>
       <c r="D294">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="295">
@@ -4350,7 +4350,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4394,7 +4394,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C306">
@@ -4407,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C307">
@@ -4440,7 +4440,7 @@
         <v>211</v>
       </c>
       <c r="D309">
-        <v>0.009725743258815395</v>
+        <v>0.009725743258815396</v>
       </c>
     </row>
     <row r="310">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C315">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C319">
@@ -4622,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="D323">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="324">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C327">
@@ -4719,7 +4719,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C331">
@@ -4745,7 +4745,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C333">
@@ -4771,7 +4771,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C335">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C336">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C338">
@@ -4875,7 +4875,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C343">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C349">
@@ -4983,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="D350">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C353">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C358">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C361">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C366">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C367">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C372">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C373">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C376">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C377">
@@ -5373,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="D380">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="381">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C383">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C384">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C386">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C389">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C392">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C404">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C406">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C408">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C410">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C413">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C414">
@@ -5828,7 +5828,7 @@
         <v>21</v>
       </c>
       <c r="D415">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="416">
@@ -5969,14 +5969,14 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C426">
         <v>21</v>
       </c>
       <c r="D426">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="427">
@@ -5989,7 +5989,7 @@
         <v>2</v>
       </c>
       <c r="D427">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="428">
@@ -6002,7 +6002,7 @@
         <v>21</v>
       </c>
       <c r="D428">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="429">
@@ -6041,13 +6041,13 @@
         <v>2</v>
       </c>
       <c r="D431">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C433">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C439">
@@ -6158,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="D440">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="441">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C443">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C447">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C450">
@@ -6301,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="D451">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="452">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C455">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C456">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C457">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C458">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C460">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C461">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C462">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C465">
@@ -6522,7 +6522,7 @@
         <v>2</v>
       </c>
       <c r="D468">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="469">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerero</t>
+          <t>Santiago Tulantepec De Lugo Guerero</t>
         </is>
       </c>
       <c r="C471">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C475">
@@ -6626,13 +6626,13 @@
         <v>2</v>
       </c>
       <c r="D476">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C477">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C478">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C481">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C487">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C488">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C489">
@@ -6808,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="D490">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="491">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C492">
@@ -6910,7 +6910,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C498">
@@ -6923,7 +6923,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C499">
@@ -7021,7 +7021,7 @@
         <v>2</v>
       </c>
       <c r="D506">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="507">
@@ -7086,7 +7086,7 @@
         <v>2</v>
       </c>
       <c r="D511">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="512">
@@ -7099,13 +7099,13 @@
         <v>2</v>
       </c>
       <c r="D512">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C513">
@@ -7183,7 +7183,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C519">
@@ -7196,7 +7196,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C520">
@@ -7209,7 +7209,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
         <v>2</v>
       </c>
       <c r="D523">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="524">
@@ -7281,7 +7281,7 @@
         <v>2</v>
       </c>
       <c r="D526">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="527">
@@ -7300,7 +7300,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C528">
@@ -7352,14 +7352,14 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C532">
         <v>2</v>
       </c>
       <c r="D532">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="533">
@@ -7417,33 +7417,33 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C537">
         <v>2</v>
       </c>
       <c r="D537">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C538">
         <v>2</v>
       </c>
       <c r="D538">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C539">
@@ -7456,20 +7456,20 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C540">
         <v>2</v>
       </c>
       <c r="D540">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C541">
@@ -7489,7 +7489,7 @@
         <v>2</v>
       </c>
       <c r="D542">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="543">
@@ -7508,7 +7508,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C544">
@@ -7534,14 +7534,14 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C546">
         <v>2</v>
       </c>
       <c r="D546">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="547">
@@ -7573,7 +7573,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C549">
@@ -7586,7 +7586,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C550">
@@ -7606,13 +7606,13 @@
         <v>2</v>
       </c>
       <c r="D551">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C552">
@@ -7625,7 +7625,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C553">
@@ -7703,7 +7703,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C559">
@@ -7716,14 +7716,14 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C560">
         <v>2</v>
       </c>
       <c r="D560">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="561">
@@ -7755,7 +7755,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C563">
@@ -7768,7 +7768,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,13 +7801,13 @@
         <v>2</v>
       </c>
       <c r="D566">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C567">
@@ -7820,14 +7820,14 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C568">
         <v>2</v>
       </c>
       <c r="D568">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="569">
@@ -7923,7 +7923,7 @@
         <v>21</v>
       </c>
       <c r="D575">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="576">
@@ -7975,7 +7975,7 @@
         <v>2</v>
       </c>
       <c r="D579">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="580">
@@ -8124,7 +8124,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C591">
@@ -8183,7 +8183,7 @@
         <v>2</v>
       </c>
       <c r="D595">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="596">
@@ -8326,7 +8326,7 @@
         <v>2</v>
       </c>
       <c r="D606">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="607">
@@ -8404,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="D612">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="613">
@@ -8599,7 +8599,7 @@
         <v>2</v>
       </c>
       <c r="D627">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="628">
@@ -8651,7 +8651,7 @@
         <v>2</v>
       </c>
       <c r="D631">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="632">
@@ -8859,7 +8859,7 @@
         <v>2</v>
       </c>
       <c r="D647">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="648">
@@ -8872,13 +8872,13 @@
         <v>2</v>
       </c>
       <c r="D648">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C649">
@@ -8937,7 +8937,7 @@
         <v>21</v>
       </c>
       <c r="D653">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="654">
@@ -8963,7 +8963,7 @@
         <v>21</v>
       </c>
       <c r="D655">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="656">
@@ -9182,7 +9182,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C672">
@@ -9241,7 +9241,7 @@
         <v>2</v>
       </c>
       <c r="D676">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="677">
@@ -9286,7 +9286,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C680">
@@ -9306,7 +9306,7 @@
         <v>2</v>
       </c>
       <c r="D681">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="682">
@@ -9338,7 +9338,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C684">
@@ -9403,7 +9403,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C689">
@@ -9416,7 +9416,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C690">
@@ -9507,7 +9507,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C697">
@@ -9551,20 +9551,20 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C700">
         <v>2</v>
       </c>
       <c r="D700">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C701">
@@ -9590,7 +9590,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C703">
@@ -9681,7 +9681,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C710">
@@ -9753,7 +9753,7 @@
         <v>2</v>
       </c>
       <c r="D715">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="716">
@@ -9784,7 +9784,7 @@
         <v>2</v>
       </c>
       <c r="D717">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="718">
@@ -9836,7 +9836,7 @@
         <v>2</v>
       </c>
       <c r="D721">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="722">
@@ -9875,7 +9875,7 @@
         <v>2</v>
       </c>
       <c r="D724">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="725">
@@ -9979,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="D732">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="733">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C734">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C735">
@@ -10057,13 +10057,13 @@
         <v>2</v>
       </c>
       <c r="D738">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C739">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C743">
@@ -10185,7 +10185,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C748">
@@ -10224,20 +10224,20 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C751">
         <v>2</v>
       </c>
       <c r="D751">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C752">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C753">
@@ -10263,7 +10263,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C754">
@@ -10276,7 +10276,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C755">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C756">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C757">
@@ -10315,7 +10315,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C758">
@@ -10374,7 +10374,7 @@
         <v>2</v>
       </c>
       <c r="D762">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="763">
@@ -10400,7 +10400,7 @@
         <v>2</v>
       </c>
       <c r="D764">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="765">
@@ -10419,7 +10419,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C766">
@@ -10432,7 +10432,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C767">
@@ -10458,7 +10458,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C769">
@@ -10471,7 +10471,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C770">
@@ -10484,7 +10484,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C771">
@@ -10510,7 +10510,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C773">
@@ -10523,7 +10523,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C774">
@@ -10536,7 +10536,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C775">
@@ -10549,14 +10549,14 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C776">
         <v>2</v>
       </c>
       <c r="D776">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="777">
@@ -10569,13 +10569,13 @@
         <v>2</v>
       </c>
       <c r="D777">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C778">
@@ -10588,7 +10588,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C779">
@@ -10686,7 +10686,7 @@
         <v>2</v>
       </c>
       <c r="D786">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="787">
@@ -10712,7 +10712,7 @@
         <v>2</v>
       </c>
       <c r="D788">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="789">
@@ -10725,7 +10725,7 @@
         <v>2</v>
       </c>
       <c r="D789">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="790">
@@ -10751,7 +10751,7 @@
         <v>2</v>
       </c>
       <c r="D791">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="792">
@@ -10777,7 +10777,7 @@
         <v>2</v>
       </c>
       <c r="D793">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="794">
@@ -10861,7 +10861,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C800">
@@ -10894,7 +10894,7 @@
         <v>2</v>
       </c>
       <c r="D802">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="803">
@@ -11024,7 +11024,7 @@
         <v>2</v>
       </c>
       <c r="D812">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="813">
@@ -11121,7 +11121,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C820">
@@ -11141,7 +11141,7 @@
         <v>2</v>
       </c>
       <c r="D821">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="822">
@@ -11193,7 +11193,7 @@
         <v>2</v>
       </c>
       <c r="D825">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="826">
@@ -11258,7 +11258,7 @@
         <v>2</v>
       </c>
       <c r="D830">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="831">
@@ -11388,7 +11388,7 @@
         <v>2</v>
       </c>
       <c r="D840">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="841">
@@ -11511,7 +11511,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C850">
@@ -11648,7 +11648,7 @@
         <v>2</v>
       </c>
       <c r="D860">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="861">
@@ -11680,27 +11680,27 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C863">
         <v>2</v>
       </c>
       <c r="D863">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C864">
         <v>2</v>
       </c>
       <c r="D864">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="865">
@@ -11739,7 +11739,7 @@
         <v>2</v>
       </c>
       <c r="D867">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="868">
@@ -11752,7 +11752,7 @@
         <v>2</v>
       </c>
       <c r="D868">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="869">
@@ -11791,7 +11791,7 @@
         <v>2</v>
       </c>
       <c r="D871">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="872">
@@ -11856,13 +11856,13 @@
         <v>2</v>
       </c>
       <c r="D876">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C877">
@@ -11921,7 +11921,7 @@
         <v>2</v>
       </c>
       <c r="D881">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="882">
@@ -11940,7 +11940,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C883">
@@ -12064,7 +12064,7 @@
         <v>2</v>
       </c>
       <c r="D892">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="893">
@@ -12116,7 +12116,7 @@
         <v>2</v>
       </c>
       <c r="D896">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="897">
@@ -12142,7 +12142,7 @@
         <v>2</v>
       </c>
       <c r="D898">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="899">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C900">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C901">
@@ -12363,7 +12363,7 @@
         <v>2</v>
       </c>
       <c r="D915">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="916">
@@ -12382,7 +12382,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C917">
@@ -12428,13 +12428,13 @@
         <v>2</v>
       </c>
       <c r="D920">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C921">
@@ -12519,7 +12519,7 @@
         <v>2</v>
       </c>
       <c r="D927">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="928">
@@ -12558,13 +12558,13 @@
         <v>2</v>
       </c>
       <c r="D930">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C931">
@@ -12577,7 +12577,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C932">
@@ -12597,7 +12597,7 @@
         <v>2</v>
       </c>
       <c r="D933">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="934">
@@ -12668,7 +12668,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C939">
@@ -12727,7 +12727,7 @@
         <v>2</v>
       </c>
       <c r="D943">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="944">
@@ -12740,7 +12740,7 @@
         <v>2</v>
       </c>
       <c r="D944">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="945">
@@ -12792,7 +12792,7 @@
         <v>2</v>
       </c>
       <c r="D948">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="949">
@@ -12844,7 +12844,7 @@
         <v>2</v>
       </c>
       <c r="D952">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="953">
@@ -12980,7 +12980,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C963">
@@ -13000,7 +13000,7 @@
         <v>2</v>
       </c>
       <c r="D964">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="965">
@@ -13130,7 +13130,7 @@
         <v>2</v>
       </c>
       <c r="D974">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="975">
@@ -13143,7 +13143,7 @@
         <v>2</v>
       </c>
       <c r="D975">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="976">
@@ -13247,7 +13247,7 @@
         <v>2</v>
       </c>
       <c r="D983">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="984">
@@ -13331,7 +13331,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C990">
@@ -13377,7 +13377,7 @@
         <v>2</v>
       </c>
       <c r="D993">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="994">
@@ -13481,13 +13481,13 @@
         <v>2</v>
       </c>
       <c r="D1001">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1002">
@@ -13500,7 +13500,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1003">
@@ -13513,7 +13513,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1004">
@@ -13526,7 +13526,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1005">
@@ -13539,7 +13539,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1006">
@@ -13565,27 +13565,27 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1008">
         <v>2</v>
       </c>
       <c r="D1008">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1009">
         <v>21</v>
       </c>
       <c r="D1009">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="1010">
@@ -13604,7 +13604,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1011">
@@ -13617,7 +13617,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1012">
@@ -13637,7 +13637,7 @@
         <v>2</v>
       </c>
       <c r="D1013">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1014">
@@ -13733,7 +13733,7 @@
         <v>2</v>
       </c>
       <c r="D1020">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1021">
@@ -13746,7 +13746,7 @@
         <v>2</v>
       </c>
       <c r="D1021">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1022">
@@ -13759,7 +13759,7 @@
         <v>2</v>
       </c>
       <c r="D1022">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1023">
@@ -13798,7 +13798,7 @@
         <v>2</v>
       </c>
       <c r="D1025">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1026">
@@ -13863,7 +13863,7 @@
         <v>21</v>
       </c>
       <c r="D1030">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="1031">
@@ -13902,13 +13902,13 @@
         <v>2</v>
       </c>
       <c r="D1033">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerero</t>
+          <t>Ayotoxco De Guerero</t>
         </is>
       </c>
       <c r="C1034">
@@ -13934,14 +13934,14 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1036">
         <v>2</v>
       </c>
       <c r="D1036">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1037">
@@ -13967,7 +13967,7 @@
         <v>2</v>
       </c>
       <c r="D1038">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1039">
@@ -14038,7 +14038,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1044">
@@ -14084,7 +14084,7 @@
         <v>2</v>
       </c>
       <c r="D1047">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1048">
@@ -14162,20 +14162,20 @@
         <v>2</v>
       </c>
       <c r="D1053">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1054">
         <v>2</v>
       </c>
       <c r="D1054">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1055">
@@ -14305,7 +14305,7 @@
         <v>2</v>
       </c>
       <c r="D1064">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1065">
@@ -14324,7 +14324,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1066">
@@ -14363,7 +14363,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C1069">
@@ -14389,7 +14389,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1071">
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="D1074">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1075">
@@ -14500,7 +14500,7 @@
         <v>2</v>
       </c>
       <c r="D1079">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1080">
@@ -14558,7 +14558,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1084">
@@ -14747,7 +14747,7 @@
         <v>2</v>
       </c>
       <c r="D1098">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1099">
@@ -14825,13 +14825,13 @@
         <v>2</v>
       </c>
       <c r="D1104">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1105">
@@ -14857,20 +14857,20 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1107">
         <v>2</v>
       </c>
       <c r="D1107">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1108">
@@ -14903,7 +14903,7 @@
         <v>2</v>
       </c>
       <c r="D1110">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1111">
@@ -14922,14 +14922,14 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1112">
         <v>2</v>
       </c>
       <c r="D1112">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1113">
@@ -14942,7 +14942,7 @@
         <v>21</v>
       </c>
       <c r="D1113">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="1114">
@@ -15000,20 +15000,20 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1118">
         <v>2</v>
       </c>
       <c r="D1118">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1119">
@@ -15026,14 +15026,14 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1120">
         <v>2</v>
       </c>
       <c r="D1120">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1121">
@@ -15046,7 +15046,7 @@
         <v>2</v>
       </c>
       <c r="D1121">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1122">
@@ -15065,20 +15065,20 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1123">
         <v>2</v>
       </c>
       <c r="D1123">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1124">
@@ -15091,14 +15091,14 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1125">
         <v>2</v>
       </c>
       <c r="D1125">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1126">
@@ -15124,7 +15124,7 @@
         <v>2</v>
       </c>
       <c r="D1127">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1128">
@@ -15156,7 +15156,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1130">
@@ -15306,7 +15306,7 @@
         <v>2</v>
       </c>
       <c r="D1141">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1142">
@@ -15351,7 +15351,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1145">
@@ -15384,7 +15384,7 @@
         <v>2</v>
       </c>
       <c r="D1147">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1148">
@@ -15462,7 +15462,7 @@
         <v>2</v>
       </c>
       <c r="D1153">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1154">
@@ -15514,7 +15514,7 @@
         <v>2</v>
       </c>
       <c r="D1157">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1158">
@@ -15551,7 +15551,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1160">
@@ -15577,7 +15577,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1162">
@@ -15655,7 +15655,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1168">
@@ -15668,7 +15668,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1169">
@@ -15707,7 +15707,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1172">
@@ -15746,7 +15746,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1175">
@@ -15797,7 +15797,7 @@
         <v>2</v>
       </c>
       <c r="D1178">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1179">
@@ -15899,7 +15899,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1186">
@@ -15945,7 +15945,7 @@
         <v>2</v>
       </c>
       <c r="D1189">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1190">
@@ -15971,13 +15971,13 @@
         <v>2</v>
       </c>
       <c r="D1191">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1192">
@@ -16094,7 +16094,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1201">
@@ -16172,7 +16172,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1207">
@@ -16237,7 +16237,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1212">
@@ -16263,7 +16263,7 @@
     <row r="1214">
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1214">
@@ -16322,7 +16322,7 @@
         <v>2</v>
       </c>
       <c r="D1218">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1219">
@@ -16393,7 +16393,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1224">
@@ -16406,20 +16406,20 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1225">
         <v>2</v>
       </c>
       <c r="D1225">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1226">
@@ -16432,7 +16432,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1227">
@@ -16445,7 +16445,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1228">
@@ -16478,7 +16478,7 @@
         <v>2</v>
       </c>
       <c r="D1230">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1231">
@@ -16561,7 +16561,7 @@
         <v>2</v>
       </c>
       <c r="D1236">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1237">
@@ -16600,7 +16600,7 @@
         <v>21</v>
       </c>
       <c r="D1239">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="1240">
@@ -16639,7 +16639,7 @@
         <v>2</v>
       </c>
       <c r="D1242">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1243">
@@ -16678,7 +16678,7 @@
         <v>2</v>
       </c>
       <c r="D1245">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1246">
@@ -16717,7 +16717,7 @@
         <v>2</v>
       </c>
       <c r="D1248">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1249">
@@ -16787,7 +16787,7 @@
         <v>2</v>
       </c>
       <c r="D1253">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1254">
@@ -16891,13 +16891,13 @@
         <v>2</v>
       </c>
       <c r="D1261">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1262">
@@ -17039,7 +17039,7 @@
         <v>2</v>
       </c>
       <c r="D1272">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1273">
@@ -17071,7 +17071,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1275">
@@ -17091,7 +17091,7 @@
         <v>2</v>
       </c>
       <c r="D1276">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1277">
@@ -17117,7 +17117,7 @@
         <v>2</v>
       </c>
       <c r="D1278">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1279">
@@ -17252,7 +17252,7 @@
         <v>2</v>
       </c>
       <c r="D1288">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1289">
@@ -17369,7 +17369,7 @@
         <v>2</v>
       </c>
       <c r="D1297">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1298">
@@ -17395,7 +17395,7 @@
         <v>2</v>
       </c>
       <c r="D1299">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1300">
@@ -17486,7 +17486,7 @@
         <v>2</v>
       </c>
       <c r="D1306">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1307">
@@ -17499,7 +17499,7 @@
         <v>21</v>
       </c>
       <c r="D1307">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="1308">
@@ -17544,7 +17544,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1311">
@@ -17616,7 +17616,7 @@
         <v>2</v>
       </c>
       <c r="D1316">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1317">
@@ -17660,7 +17660,7 @@
         <v>2</v>
       </c>
       <c r="D1319">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1320">
@@ -17686,7 +17686,7 @@
         <v>2</v>
       </c>
       <c r="D1321">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1322">
@@ -17718,14 +17718,14 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1324">
         <v>2</v>
       </c>
       <c r="D1324">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1325">
@@ -17738,7 +17738,7 @@
         <v>2</v>
       </c>
       <c r="D1325">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1326">
@@ -17757,7 +17757,7 @@
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1327">
@@ -17796,7 +17796,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1330">
@@ -17848,7 +17848,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1334">
@@ -17887,14 +17887,14 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1337">
         <v>2</v>
       </c>
       <c r="D1337">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1338">
@@ -17959,7 +17959,7 @@
         <v>2</v>
       </c>
       <c r="D1342">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1343">
@@ -18016,7 +18016,7 @@
         <v>2</v>
       </c>
       <c r="D1346">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1347">
@@ -18068,7 +18068,7 @@
         <v>2</v>
       </c>
       <c r="D1350">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1351">
@@ -18087,7 +18087,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1352">
@@ -18139,7 +18139,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1356">
@@ -18198,7 +18198,7 @@
         <v>2</v>
       </c>
       <c r="D1360">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1361">
@@ -18269,7 +18269,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1366">
@@ -18302,7 +18302,7 @@
         <v>2</v>
       </c>
       <c r="D1368">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1369">
@@ -18334,14 +18334,14 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1371">
         <v>2</v>
       </c>
       <c r="D1371">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1372">
@@ -18360,7 +18360,7 @@
     <row r="1373">
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1373">
@@ -18445,7 +18445,7 @@
         <v>2</v>
       </c>
       <c r="D1379">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1380">
@@ -18458,7 +18458,7 @@
         <v>2</v>
       </c>
       <c r="D1380">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1381">
@@ -18536,7 +18536,7 @@
         <v>2</v>
       </c>
       <c r="D1386">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1387">
@@ -18549,7 +18549,7 @@
         <v>2</v>
       </c>
       <c r="D1387">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1388">
@@ -18568,7 +18568,7 @@
     <row r="1389">
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1389">
@@ -18653,7 +18653,7 @@
         <v>2</v>
       </c>
       <c r="D1395">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1396">
@@ -18776,7 +18776,7 @@
     <row r="1405">
       <c r="B1405" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1405">
@@ -18789,7 +18789,7 @@
     <row r="1406">
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1406">
@@ -18835,13 +18835,13 @@
         <v>2</v>
       </c>
       <c r="D1409">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1410">
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1410">
@@ -18854,7 +18854,7 @@
     <row r="1411">
       <c r="B1411" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1411">
@@ -18867,7 +18867,7 @@
     <row r="1412">
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1412">
@@ -18952,7 +18952,7 @@
         <v>2</v>
       </c>
       <c r="D1418">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1419">
@@ -18984,7 +18984,7 @@
     <row r="1421">
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1421">
@@ -19023,7 +19023,7 @@
     <row r="1424">
       <c r="B1424" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1424">
@@ -19036,7 +19036,7 @@
     <row r="1425">
       <c r="B1425" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1425">
@@ -19075,7 +19075,7 @@
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1428">
@@ -19114,14 +19114,14 @@
     <row r="1431">
       <c r="B1431" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1431">
         <v>2</v>
       </c>
       <c r="D1431">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1432">
@@ -19134,7 +19134,7 @@
         <v>2</v>
       </c>
       <c r="D1432">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1433">
@@ -19166,7 +19166,7 @@
     <row r="1435">
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1435">
@@ -19192,7 +19192,7 @@
     <row r="1437">
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1437">
@@ -19309,7 +19309,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1446">
@@ -19361,7 +19361,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1450">
@@ -19374,7 +19374,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1451">
@@ -19407,7 +19407,7 @@
         <v>2</v>
       </c>
       <c r="D1453">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1454">
@@ -19426,14 +19426,14 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1455">
         <v>21</v>
       </c>
       <c r="D1455">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="1456">
@@ -19485,7 +19485,7 @@
         <v>2</v>
       </c>
       <c r="D1459">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1460">
@@ -19530,7 +19530,7 @@
     <row r="1463">
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1463">
@@ -19569,7 +19569,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1466">
@@ -19634,7 +19634,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1471">
@@ -19784,7 +19784,7 @@
         <v>21</v>
       </c>
       <c r="D1482">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="1483">
@@ -19810,7 +19810,7 @@
         <v>21</v>
       </c>
       <c r="D1484">
-        <v>0.0009679649688868403</v>
+        <v>0.0009679649688868404</v>
       </c>
     </row>
     <row r="1485">
@@ -19836,7 +19836,7 @@
         <v>2</v>
       </c>
       <c r="D1486">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1487">
@@ -19862,7 +19862,7 @@
         <v>2</v>
       </c>
       <c r="D1488">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1489">
@@ -19992,7 +19992,7 @@
         <v>2</v>
       </c>
       <c r="D1498">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1499">
@@ -20024,7 +20024,7 @@
     <row r="1501">
       <c r="B1501" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1501">
@@ -20154,7 +20154,7 @@
     <row r="1511">
       <c r="B1511" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1511">
@@ -20257,7 +20257,7 @@
         <v>2</v>
       </c>
       <c r="D1518">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1519">
@@ -20283,7 +20283,7 @@
         <v>2</v>
       </c>
       <c r="D1520">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1521">
@@ -20346,7 +20346,7 @@
     <row r="1525">
       <c r="B1525" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1525">
@@ -20366,13 +20366,13 @@
         <v>2</v>
       </c>
       <c r="D1526">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1527">
       <c r="B1527" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1527">
@@ -20483,13 +20483,13 @@
         <v>2</v>
       </c>
       <c r="D1535">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1536">
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1536">
@@ -20561,7 +20561,7 @@
         <v>2</v>
       </c>
       <c r="D1541">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1542">
@@ -20580,7 +20580,7 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1543">
@@ -20600,7 +20600,7 @@
         <v>2</v>
       </c>
       <c r="D1544">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1545">
@@ -20613,7 +20613,7 @@
         <v>2</v>
       </c>
       <c r="D1545">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1546">
@@ -20626,13 +20626,13 @@
         <v>2</v>
       </c>
       <c r="D1546">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1547">
       <c r="B1547" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1547">
@@ -20645,14 +20645,14 @@
     <row r="1548">
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1548">
         <v>2</v>
       </c>
       <c r="D1548">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1549">
@@ -20736,7 +20736,7 @@
     <row r="1555">
       <c r="B1555" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1555">
@@ -20749,7 +20749,7 @@
     <row r="1556">
       <c r="B1556" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1556">
@@ -20788,7 +20788,7 @@
     <row r="1559">
       <c r="B1559" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1559">
@@ -20834,7 +20834,7 @@
         <v>2</v>
       </c>
       <c r="D1562">
-        <v>9.218713989398479E-05</v>
+        <v>9.21871398939848E-05</v>
       </c>
     </row>
     <row r="1563">
@@ -20887,41 +20887,6 @@
       </c>
       <c r="D1566">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
